--- a/设计说明/存储区域划分说明/存储区域划分0.1.xlsx
+++ b/设计说明/存储区域划分说明/存储区域划分0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="19100" windowHeight="7360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>由于iverilog的局限性，地址空间最大为2^27,mips地址空间为2^32,采用同比例缩放，重新划分存储空间。</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>unmapped：异常处理程序</t>
+  </si>
+  <si>
+    <t>异常堆栈</t>
   </si>
   <si>
     <t>0x80000000</t>
@@ -128,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,6 +145,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -151,15 +161,53 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +230,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -198,6 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,82 +268,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,37 +298,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +388,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,103 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,15 +589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,9 +610,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,13 +628,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,133 +671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,13 +1167,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1185,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25"/>
+    <row r="3" ht="14.75"/>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
@@ -1211,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="14.75" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="5:7">
+    <row r="8" ht="14.75" spans="5:7">
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
@@ -1259,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="5:7">
+    <row r="11" ht="14.75" spans="5:7">
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" t="s">
@@ -1275,27 +1278,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="5:12">
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="I13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="5:7">
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="14.75" spans="5:7">
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="5:6">
@@ -1314,60 +1320,60 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" ht="14.25" spans="5:7">
+    <row r="20" ht="14.75" spans="5:7">
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="5:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="14.75" spans="5:7">
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" ht="14.25" spans="5:7">
+    <row r="25" ht="14.75" spans="5:7">
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="14.25" spans="5:7">
+    <row r="27" ht="14.75" spans="5:7">
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1402,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1413,7 +1419,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
